--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nombre de Especie</t>
   </si>
@@ -54,13 +54,10 @@
     <t>Probabilidad</t>
   </si>
   <si>
-    <t>Varianza</t>
+    <t>Desviación</t>
   </si>
   <si>
-    <t>Depredador Diurno</t>
-  </si>
-  <si>
-    <t>Presa Diurna</t>
+    <t>Rango</t>
   </si>
 </sst>
 </file>
@@ -875,8 +872,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -921,7 +918,9 @@
       <c r="J1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="1"/>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
@@ -946,7 +945,7 @@
         <v>5</v>
       </c>
       <c r="H2" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="2">
         <v>0.1</v>
@@ -954,7 +953,9 @@
       <c r="J2" s="2">
         <v>0.85</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
@@ -964,7 +965,7 @@
         <v>2</v>
       </c>
       <c r="C3" s="2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="D3" s="2">
         <v>0</v>
@@ -974,62 +975,36 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="H3" s="2">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>0.2</v>
+      </c>
       <c r="J3" s="2">
         <v>0.1</v>
       </c>
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
-        <v>1</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2">
-        <v>6</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="2">
-        <v>0.7</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="2">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
